--- a/docs/tools/docs/excel-cases.xlsx
+++ b/docs/tools/docs/excel-cases.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hudamin/projects/git/mydocs3/docs/tools/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EB37DE-30DB-FC40-8551-0BD32A820BE2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9E4456-698D-F143-98A7-BB44792421E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="460" windowWidth="24540" windowHeight="14460" activeTab="1" xr2:uid="{736B27D5-3650-604C-ADCB-6D68D0BAC2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="TIPS" sheetId="4" r:id="rId1"/>
-    <sheet name="文本拼接" sheetId="6" r:id="rId2"/>
-    <sheet name="sumif" sheetId="1" r:id="rId3"/>
-    <sheet name="countif" sheetId="5" r:id="rId4"/>
-    <sheet name="vlookup" sheetId="2" r:id="rId5"/>
-    <sheet name="if" sheetId="3" r:id="rId6"/>
+    <sheet name="日期与时间" sheetId="7" r:id="rId2"/>
+    <sheet name="文本拼接" sheetId="6" r:id="rId3"/>
+    <sheet name="sumif" sheetId="1" r:id="rId4"/>
+    <sheet name="countif" sheetId="5" r:id="rId5"/>
+    <sheet name="vlookup" sheetId="2" r:id="rId6"/>
+    <sheet name="if" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="103">
   <si>
     <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,6 +392,66 @@
   </si>
   <si>
     <t>兼容性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">条件格式，选择“使用公式设置要设置格式的单元格” ，再输入类似如下公式：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>=AND(LEN($D2)&lt;&gt;0, $D2*0.6&lt;$E2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义单元格条件样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODAY()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE(year,month,day)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOUR(serial_num)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +459,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -435,8 +496,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,6 +519,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,7 +558,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -514,6 +587,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -830,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2AA3F1-1A56-A346-8ABC-72E9943CCF5D}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -930,6 +1009,28 @@
         <v>53</v>
       </c>
     </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="52">
+      <c r="A16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -937,10 +1038,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB42A1E8-A0C1-264C-9C7C-971C3B8573A4}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="10">
+        <f>DATE(2019,11,27)</f>
+        <v>43796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="10">
+        <f ca="1">TODAY()</f>
+        <v>43796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="1">
+        <f>HOUR("2019/11/27 11:00")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F9AF8F-8460-024E-BD8E-1F5D0FCA70E5}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1165,12 +1327,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CF3B2F-F8DF-014C-B93E-A55E662CC0ED}">
-  <dimension ref="B1:L10"/>
+  <dimension ref="B1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1228,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I6" si="0">SUMIF(B:B, H5, C:C)</f>
+        <f t="shared" ref="I5:I8" si="0">SUMIF(B:B, H5, C:C)</f>
         <v>60</v>
       </c>
     </row>
@@ -1254,6 +1416,13 @@
       <c r="C7" s="1">
         <v>30</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="1" t="s">
@@ -1262,6 +1431,13 @@
       <c r="C8" s="1">
         <v>10</v>
       </c>
+      <c r="H8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="1" t="s">
@@ -1277,6 +1453,22 @@
       </c>
       <c r="C10" s="1">
         <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="2">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +1477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AE8C29-89E2-2D4C-AD1F-F89DA50F4AF8}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -1463,7 +1655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB65D04A-4DCB-F841-BB21-4035DACE8FDE}">
   <dimension ref="A1:L7"/>
   <sheetViews>
@@ -1646,7 +1838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343EC89D-EB8C-DD48-840E-34DC45D26459}">
   <dimension ref="A1:M13"/>
   <sheetViews>

--- a/docs/tools/docs/excel-cases.xlsx
+++ b/docs/tools/docs/excel-cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hudamin/projects/git/mydocs3/docs/tools/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9E4456-698D-F143-98A7-BB44792421E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F113580D-CB3D-7D45-904F-946745415E2C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="24540" windowHeight="14460" activeTab="1" xr2:uid="{736B27D5-3650-604C-ADCB-6D68D0BAC2FE}"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="24540" windowHeight="14460" activeTab="7" xr2:uid="{736B27D5-3650-604C-ADCB-6D68D0BAC2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="TIPS" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="countif" sheetId="5" r:id="rId5"/>
     <sheet name="vlookup" sheetId="2" r:id="rId6"/>
     <sheet name="if" sheetId="3" r:id="rId7"/>
+    <sheet name="矩阵计算" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="104">
   <si>
     <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,6 +453,10 @@
   </si>
   <si>
     <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵向量相乘：三元一次方程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +508,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,6 +530,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,7 +569,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -593,6 +604,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1041,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB42A1E8-A0C1-264C-9C7C-971C3B8573A4}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1074,7 +1088,7 @@
       </c>
       <c r="B3" s="10">
         <f ca="1">TODAY()</f>
-        <v>43796</v>
+        <v>43801</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2059,4 +2073,91 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831F0E87-CA9F-B243-ADDE-48D6803476C1}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <f>A2*$E$2+B2*$E$3+C2*$E$4</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G4" si="0">A3*$E$2+B3*$E$3+C3*$E$4</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/tools/docs/excel-cases.xlsx
+++ b/docs/tools/docs/excel-cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hudamin/projects/git/mydocs3/docs/tools/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F113580D-CB3D-7D45-904F-946745415E2C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C0D671-CE9A-6E44-95E3-DCED47427658}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="24540" windowHeight="14460" activeTab="7" xr2:uid="{736B27D5-3650-604C-ADCB-6D68D0BAC2FE}"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="24540" windowHeight="14460" activeTab="8" xr2:uid="{736B27D5-3650-604C-ADCB-6D68D0BAC2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="TIPS" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="vlookup" sheetId="2" r:id="rId6"/>
     <sheet name="if" sheetId="3" r:id="rId7"/>
     <sheet name="矩阵计算" sheetId="8" r:id="rId8"/>
+    <sheet name="单元格默认值" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="129">
   <si>
     <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,12 +460,209 @@
     <t>矩阵向量相乘：三元一次方程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>空值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不包含任何特定的数字格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计专用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vlookup结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下两行分别包含空字符串和空值，操作去重时，是不会作为重复项的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空字符串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是作为两个不同的值，去重时不会考虑</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. vlookup取到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，常规展示为0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2. vlookup取到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空字符串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，常规展示为空字符串</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <numFmts count="8">
+    <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="181" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="182" formatCode="#\ ??/100"/>
+    <numFmt numFmtId="183" formatCode="000000"/>
+    <numFmt numFmtId="184" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -507,8 +705,29 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,6 +758,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -569,7 +794,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,6 +832,69 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,7 +1376,7 @@
       </c>
       <c r="B3" s="10">
         <f ca="1">TODAY()</f>
-        <v>43801</v>
+        <v>43808</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2079,7 +2367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831F0E87-CA9F-B243-ADDE-48D6803476C1}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -2160,4 +2448,286 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6445F9-158E-9B4A-A7F3-46C9FB449A57}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="5.83203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="1">
+        <f>VLOOKUP($B2,$B$2:$C$15,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="15">
+        <f>VLOOKUP($B3,$B$2:$C$13,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="16">
+        <f t="shared" ref="E3:E13" si="0">VLOOKUP($B4,$B$2:$C$13,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="30">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="11" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="31" t="str">
+        <f>VLOOKUP($B14,$B$2:$C$15,2,FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="30">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="31">
+        <f>VLOOKUP($B15,$B$2:$C$15,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9">
+      <c r="H19" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9">
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="8:9">
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="8:9">
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/tools/docs/excel-cases.xlsx
+++ b/docs/tools/docs/excel-cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hudamin/projects/git/mydocs3/docs/tools/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C0D671-CE9A-6E44-95E3-DCED47427658}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E919B10E-C893-F44D-B61F-66AF5C6A2771}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="24540" windowHeight="14460" activeTab="8" xr2:uid="{736B27D5-3650-604C-ADCB-6D68D0BAC2FE}"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="24540" windowHeight="14460" activeTab="3" xr2:uid="{736B27D5-3650-604C-ADCB-6D68D0BAC2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="TIPS" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="129">
   <si>
     <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -656,11 +656,11 @@
     <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="181" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="182" formatCode="#\ ??/100"/>
-    <numFmt numFmtId="183" formatCode="000000"/>
-    <numFmt numFmtId="184" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="179" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="180" formatCode="#\ ??/100"/>
+    <numFmt numFmtId="181" formatCode="000000"/>
+    <numFmt numFmtId="182" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -849,31 +849,31 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B3" s="10">
         <f ca="1">TODAY()</f>
-        <v>43808</v>
+        <v>43813</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1631,10 +1631,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CF3B2F-F8DF-014C-B93E-A55E662CC0ED}">
-  <dimension ref="B1:L12"/>
+  <dimension ref="B1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1770,6 +1770,59 @@
         <v>92</v>
       </c>
       <c r="C12" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="E14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <f ca="1">SUMIF($B$2:$C$12,E15,$C$2:$C$12)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" ref="F16:F19" ca="1" si="1">SUMIF($B$2:$C$12,E16,$C$2:$C$12)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" ca="1" si="1"/>
         <v>66</v>
       </c>
     </row>
@@ -2454,7 +2507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6445F9-158E-9B4A-A7F3-46C9FB449A57}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -2526,7 +2579,7 @@
       <c r="C4" s="16"/>
       <c r="D4" s="1"/>
       <c r="E4" s="16">
-        <f t="shared" ref="E3:E13" si="0">VLOOKUP($B4,$B$2:$C$13,2,FALSE)</f>
+        <f t="shared" ref="E4:E13" si="0">VLOOKUP($B4,$B$2:$C$13,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H4" t="s">

--- a/docs/tools/docs/excel-cases.xlsx
+++ b/docs/tools/docs/excel-cases.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hudamin/projects/git/mydocs3/docs/tools/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E919B10E-C893-F44D-B61F-66AF5C6A2771}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B206750-C159-1B4C-854E-92DB3395A757}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="24540" windowHeight="14460" activeTab="3" xr2:uid="{736B27D5-3650-604C-ADCB-6D68D0BAC2FE}"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="24540" windowHeight="14460" xr2:uid="{736B27D5-3650-604C-ADCB-6D68D0BAC2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="TIPS" sheetId="4" r:id="rId1"/>
     <sheet name="日期与时间" sheetId="7" r:id="rId2"/>
     <sheet name="文本拼接" sheetId="6" r:id="rId3"/>
-    <sheet name="sumif" sheetId="1" r:id="rId4"/>
-    <sheet name="countif" sheetId="5" r:id="rId5"/>
-    <sheet name="vlookup" sheetId="2" r:id="rId6"/>
-    <sheet name="if" sheetId="3" r:id="rId7"/>
-    <sheet name="矩阵计算" sheetId="8" r:id="rId8"/>
-    <sheet name="单元格默认值" sheetId="9" r:id="rId9"/>
+    <sheet name="查找与引用-todo" sheetId="10" r:id="rId4"/>
+    <sheet name="sumif" sheetId="1" r:id="rId5"/>
+    <sheet name="countif" sheetId="5" r:id="rId6"/>
+    <sheet name="vlookup" sheetId="2" r:id="rId7"/>
+    <sheet name="if" sheetId="3" r:id="rId8"/>
+    <sheet name="矩阵计算" sheetId="8" r:id="rId9"/>
+    <sheet name="单元格默认值" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="140">
   <si>
     <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -578,7 +579,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>空值</t>
     </r>
@@ -604,7 +604,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>空值</t>
     </r>
@@ -630,7 +629,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>空字符串</t>
     </r>
@@ -645,6 +643,56 @@
       </rPr>
       <t>，常规展示为空字符串</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串如何表示换行符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 不支持反斜线转义
+2. 反斜线无特殊含义
+3. 需使用函数char(number)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(10) -&gt; 输出换行符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何删除外部数据连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 公式 - 定义名称，删除对应外部名称
+2. 保存成2003格式后，外部链接自动失效
+可参考：http://www.360doc.com/content/16/0730/13/31525860_579544560.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 引用外部，但外部文件已经找不到
+2. 数据 - 编辑链接，断开链接无效
+3. 每次打开都会弹窗提示，非常麻烦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,7 +772,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线 (正文)"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -765,7 +812,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -788,13 +835,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -895,6 +970,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1211,16 +1295,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2AA3F1-1A56-A346-8ABC-72E9943CCF5D}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="38.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1331,6 +1415,326 @@
       </c>
       <c r="C16" s="8" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="68">
+      <c r="A19" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="102">
+      <c r="A20" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6445F9-158E-9B4A-A7F3-46C9FB449A57}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="5.83203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="1">
+        <f>VLOOKUP($B2,$B$2:$C$15,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="15">
+        <f>VLOOKUP($B3,$B$2:$C$13,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="16">
+        <f t="shared" ref="E4:E13" si="0">VLOOKUP($B4,$B$2:$C$13,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="30">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="11" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="31" t="str">
+        <f>VLOOKUP($B14,$B$2:$C$15,2,FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="30">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="31">
+        <f>VLOOKUP($B15,$B$2:$C$15,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9">
+      <c r="H19" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9">
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="8:9">
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="8:9">
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +1780,7 @@
       </c>
       <c r="B3" s="10">
         <f ca="1">TODAY()</f>
-        <v>43813</v>
+        <v>43843</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1404,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F9AF8F-8460-024E-BD8E-1F5D0FCA70E5}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1630,10 +2034,50 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258668AC-DE73-104C-85FC-FDDB8DA530DF}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CF3B2F-F8DF-014C-B93E-A55E662CC0ED}">
   <dimension ref="B1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -1832,7 +2276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AE8C29-89E2-2D4C-AD1F-F89DA50F4AF8}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -2010,7 +2454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB65D04A-4DCB-F841-BB21-4035DACE8FDE}">
   <dimension ref="A1:L7"/>
   <sheetViews>
@@ -2193,7 +2637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343EC89D-EB8C-DD48-840E-34DC45D26459}">
   <dimension ref="A1:M13"/>
   <sheetViews>
@@ -2416,7 +2860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831F0E87-CA9F-B243-ADDE-48D6803476C1}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -2501,286 +2945,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6445F9-158E-9B4A-A7F3-46C9FB449A57}">
-  <dimension ref="A1:I22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="5.83203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="1">
-        <f>VLOOKUP($B2,$B$2:$C$15,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="15">
-        <f>VLOOKUP($B3,$B$2:$C$13,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="16">
-        <f t="shared" ref="E4:E13" si="0">VLOOKUP($B4,$B$2:$C$13,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="14">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="14">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="14">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="14">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="30">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="11" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="31" t="str">
-        <f>VLOOKUP($B14,$B$2:$C$15,2,FALSE)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="30">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="31">
-        <f>VLOOKUP($B15,$B$2:$C$15,2,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9">
-      <c r="H19" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9">
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="8:9">
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="8:9">
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/docs/tools/docs/excel-cases.xlsx
+++ b/docs/tools/docs/excel-cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hudamin/projects/git/mydocs3/docs/tools/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B206750-C159-1B4C-854E-92DB3395A757}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415AEE53-2DB7-744C-9F1D-86C66ABB2E66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="24540" windowHeight="14460" xr2:uid="{736B27D5-3650-604C-ADCB-6D68D0BAC2FE}"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="24540" windowHeight="14460" activeTab="4" xr2:uid="{736B27D5-3650-604C-ADCB-6D68D0BAC2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="TIPS" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="143">
   <si>
     <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -579,6 +579,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>空值</t>
     </r>
@@ -604,6 +605,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>空值</t>
     </r>
@@ -629,6 +631,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>空字符串</t>
     </r>
@@ -693,6 +696,102 @@
     <t>1. 引用外部，但外部文件已经找不到
 2. 数据 - 编辑链接，断开链接无效
 3. 每次打开都会弹窗提示，非常麻烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 注意sum_range部分与range部分的行范围保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2. 建议： =SUMIF(Sheet2!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$B$2:$B$35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Sheet3!A2,Sheet2!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D$2:D$35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3. 而不是：=SUMIF(Sheet2!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$B$2:$B$35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Sheet3!A2,Sheet2!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D:D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,7 +809,7 @@
     <numFmt numFmtId="181" formatCode="000000"/>
     <numFmt numFmtId="182" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -772,6 +871,21 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -869,7 +983,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -979,6 +1093,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1297,7 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2AA3F1-1A56-A346-8ABC-72E9943CCF5D}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1780,7 +1897,7 @@
       </c>
       <c r="B3" s="10">
         <f ca="1">TODAY()</f>
-        <v>43843</v>
+        <v>43899</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2077,11 +2194,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CF3B2F-F8DF-014C-B93E-A55E662CC0ED}">
   <dimension ref="B1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="12" max="12" width="63.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:12">
       <c r="B1" s="6" t="s">
@@ -2124,6 +2244,9 @@
         <f>SUMIF(B:B, H4, C:C)</f>
         <v>30</v>
       </c>
+      <c r="L4" s="37" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="1" t="s">
@@ -2139,6 +2262,9 @@
         <f t="shared" ref="I5:I8" si="0">SUMIF(B:B, H5, C:C)</f>
         <v>60</v>
       </c>
+      <c r="L5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="1" t="s">
@@ -2153,6 +2279,9 @@
       <c r="I6" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
+      </c>
+      <c r="L6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:12">

--- a/docs/tools/docs/excel-cases.xlsx
+++ b/docs/tools/docs/excel-cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hudamin/projects/git/mydocs3/docs/tools/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hudamin/projects/me/mydocs3/docs/tools/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415AEE53-2DB7-744C-9F1D-86C66ABB2E66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9EC588-BEF1-C346-A4DA-98FCA358D0DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="24540" windowHeight="14460" activeTab="4" xr2:uid="{736B27D5-3650-604C-ADCB-6D68D0BAC2FE}"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="24540" windowHeight="14460" xr2:uid="{736B27D5-3650-604C-ADCB-6D68D0BAC2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="TIPS" sheetId="4" r:id="rId1"/>
@@ -29,6 +29,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -411,22 +420,6 @@
   </si>
   <si>
     <t>公式自定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">条件格式，选择“使用公式设置要设置格式的单元格” ，再输入类似如下公式：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>=AND(LEN($D2)&lt;&gt;0, $D2*0.6&lt;$E2)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -791,6 +784,88 @@
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">条件格式，选择“使用公式设置要设置格式的单元格” ，再输入类似如下公式：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>=AND(LEN($D2)&lt;&gt;0, $D2*0.6&lt;$E2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+以下为问题写法：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>=LEN($D2)&lt;&gt;0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+会被解析为：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>='LEN($D2)&lt;&gt;0'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+正确写法应为：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>=AND(LEN($D2)&lt;&gt;0, 1)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1414,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2AA3F1-1A56-A346-8ABC-72E9943CCF5D}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1523,48 +1598,48 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="52">
+    <row r="16" spans="1:3" ht="208">
       <c r="A16" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>132</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="68">
       <c r="A19" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="C19" s="36" t="s">
         <v>135</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="102">
       <c r="A20" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="35" t="s">
         <v>137</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1596,19 +1671,19 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1616,11 +1691,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="1">
         <f>VLOOKUP($B2,$B$2:$C$15,2,FALSE)</f>
@@ -1632,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="1"/>
@@ -1641,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1649,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="1"/>
@@ -1658,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1666,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="1"/>
@@ -1675,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1683,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="1"/>
@@ -1692,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1700,7 +1775,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="1"/>
@@ -1714,7 +1789,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="1"/>
@@ -1728,7 +1803,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="1"/>
@@ -1742,7 +1817,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="1"/>
@@ -1756,7 +1831,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="1"/>
@@ -1770,7 +1845,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="1"/>
@@ -1784,7 +1859,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="1"/>
@@ -1798,7 +1873,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="11" t="str">
         <f>""</f>
@@ -1815,7 +1890,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="11">
         <v>1</v>
@@ -1828,7 +1903,7 @@
     </row>
     <row r="19" spans="8:9">
       <c r="H19" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="8:9">
@@ -1876,15 +1951,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="10">
         <f>DATE(2019,11,27)</f>
@@ -1893,16 +1968,16 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="10">
         <f ca="1">TODAY()</f>
-        <v>43899</v>
+        <v>44230</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1">
         <f>HOUR("2019/11/27 11:00")</f>
@@ -1911,7 +1986,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1"/>
     </row>
@@ -2162,10 +2237,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2173,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2181,7 +2256,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2194,7 +2269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CF3B2F-F8DF-014C-B93E-A55E662CC0ED}">
   <dimension ref="B1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -2245,7 +2320,7 @@
         <v>30</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -2263,7 +2338,7 @@
         <v>60</v>
       </c>
       <c r="L5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -2281,7 +2356,7 @@
         <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="2:12">
@@ -3009,7 +3084,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
